--- a/results/webgoat-NET/SCS-Webgoat-NET.xlsx
+++ b/results/webgoat-NET/SCS-Webgoat-NET.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syeda\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Winter 2020\CMPUT 664\Project\Progress\CMPUT_664_Project\CMPUT-664-Project\results\webgoat-NET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAE3B50-5FA1-4A0F-9D81-9E78F5DBE3D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D3A69E-7843-42A8-B54E-31E748AB0567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FC9F9D93-E15D-4B8A-951C-4139EBA3AF20}"/>
   </bookViews>
@@ -1525,7 +1525,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:C29"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1568,7 +1568,7 @@
         <v>78</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
